--- a/metrics/precision_recall.xlsx
+++ b/metrics/precision_recall.xlsx
@@ -109,8 +109,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -122,11 +126,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,7 +467,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -477,33 +485,33 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
+      <c r="A2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="C2" s="1">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="D2" s="2">
         <f>2*(B2*C2)/(B2+C2)</f>
-        <v>0.77794871794871789</v>
+        <v>0.84260355029585809</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>0.68</v>
+        <v>0.81</v>
       </c>
       <c r="C3" s="1">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="D3" s="2">
         <f>2*(B3*C3)/(B3+C3)</f>
-        <v>0.7746835443037976</v>
+        <v>0.76792207792207801</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -511,74 +519,74 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="C4" s="1">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="D4" s="2">
         <f>2*(B4*C4)/(B4+C4)</f>
-        <v>0.7077464788732396</v>
+        <v>0.70979310344827584</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="C5" s="1">
-        <v>0.85</v>
+        <v>0.61</v>
       </c>
       <c r="D5" s="2">
         <f>2*(B5*C5)/(B5+C5)</f>
-        <v>0.70344827586206904</v>
+        <v>0.67678832116788312</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="C6" s="1">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="D6" s="2">
         <f>2*(B6*C6)/(B6+C6)</f>
-        <v>0.67632352941176477</v>
+        <v>0.67318518518518511</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="C7" s="1">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="D7" s="2">
         <f>2*(B7*C7)/(B7+C7)</f>
-        <v>0.53527272727272723</v>
+        <v>0.47120000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="1">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D8" s="2">
         <f>2*(B8*C8)/(B8+C8)</f>
-        <v>0.49059829059829058</v>
+        <v>0.41860465116279066</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -587,15 +595,15 @@
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>0.70857142857142852</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ref="C9:D9" si="0">AVERAGE(C2:C8)</f>
-        <v>0.66857142857142848</v>
+        <f>AVERAGE(C2:C8)</f>
+        <v>0.64428571428571435</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.66657450918151528</v>
+        <f>AVERAGE(D2:D8)</f>
+        <v>0.6514424127402958</v>
       </c>
     </row>
   </sheetData>
